--- a/target/test-classes/registration_data.xlsx
+++ b/target/test-classes/registration_data.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RegistrationNumber</t>
-  </si>
-  <si>
-    <t>HR29AP9364</t>
-  </si>
-  <si>
-    <t>MH43BN5339</t>
   </si>
   <si>
     <t>KA41MB0144</t>
   </si>
   <si>
-    <t>MH11CS3027</t>
+    <t>MH43AJ7461</t>
   </si>
   <si>
     <t>MH14HX1503</t>
   </si>
   <si>
     <t>TN70S5118</t>
+  </si>
+  <si>
+    <t>HR29AP9364</t>
   </si>
   <si>
     <t>GJ06FE2289</t>
@@ -46,11 +43,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -59,59 +56,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Inherit"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,91 +157,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,85 +216,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,97 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +421,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +473,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,195 +501,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,13 +919,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="23.0625" customWidth="1"/>
   </cols>
@@ -953,7 +941,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -977,16 +965,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
